--- a/src/main/webapp/img/product/Bảng tính chưa có tiêu đề.xlsx
+++ b/src/main/webapp/img/product/Bảng tính chưa có tiêu đề.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9480" activeTab="3"/>
+    <workbookView windowWidth="23028" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="gaming" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
     <t>Laptop Asus TUF Gaming FX507Z</t>
   </si>
   <si>
-    <t>28.190.000₫</t>
+    <t>28.190.000</t>
   </si>
   <si>
     <t>16 GBDDR5 2 khe (1 khe 8 GB + 1 khe 8 GB)4800 MHz</t>
@@ -1934,10 +1934,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="55">
     <font>
@@ -2153,14 +2153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2182,17 +2174,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2207,9 +2199,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2268,7 +2268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2289,16 +2289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,7 +2349,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,13 +2421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,25 +2439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,25 +2463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,79 +2487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2529,7 +2511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,24 +2698,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2759,11 +2755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2785,60 +2787,58 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2850,94 +2850,94 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3401,8 +3401,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1"/>
@@ -4792,8 +4792,8 @@
       <c r="D45" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>37</v>
+      <c r="E45" s="69" t="s">
+        <v>13</v>
       </c>
       <c r="F45" s="63"/>
       <c r="G45" s="63"/>
@@ -33026,6 +33026,7 @@
     <hyperlink ref="E413" r:id="rId3" display="HD webcam"/>
     <hyperlink ref="E428" r:id="rId3" display="HD webcam"/>
     <hyperlink ref="E443" r:id="rId3" display="HD webcam"/>
+    <hyperlink ref="E45" r:id="rId3" display="HD webcam"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -36497,7 +36498,7 @@
   <sheetPr/>
   <dimension ref="A1:E438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
